--- a/HW-Module/Feedback_Professor.xlsx
+++ b/HW-Module/Feedback_Professor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Diplomarbeit\FaRiSmarthome\HW-Module\NODE\Changes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Diplomarbeit\FaRiSmarthome\HW-Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2714E55E-8620-4783-874F-A8AE22E3974A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26101961-EA17-4FC9-B348-14E81DE39421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{0B899DE8-8826-424A-B012-64E21AF2ECC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B899DE8-8826-424A-B012-64E21AF2ECC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Changes</t>
   </si>
@@ -47,10 +47,13 @@
     <t>Replaced Mirco-USB with USB-C Port, Increased impedance of the Battery voltage divider and added a 100nF cap for stability, Added a header for VCC and GND, Replaced BC546 with BC846(SMD), Addes a probe-pad for RESET and GND, Added lettering on PCB</t>
   </si>
   <si>
-    <t xml:space="preserve">Schalt-Print: Strommessung Hall effect IC verwenden, kein Strommesstrafo, Node: Native USB for programming, SHT40 Temperatursens, No Volatge Regulator -&gt; Buck-Converter, Battery-Print redesign: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Schalt-Print: ACS712 placement, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schalt-Print: Strommessung Hall effect IC verwenden, kein Strommesstrafo, Node: Native USB for programming, SHT40 Temperatursens, No Voltage Regulator -&gt; Buck-Converter, Battery-Print redesign: </t>
+  </si>
+  <si>
+    <t>Spannungsteiler-Modulerkennung gelöst, halber Spannungsteiler auf Node. Strommesssensor gemessen,  alles bestellt und gestern angekommen.</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F1055A-B2C5-4502-BEC7-87F87744CBC2}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A3:B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +455,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>45602</v>
@@ -460,10 +463,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>45609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45686</v>
       </c>
     </row>
   </sheetData>
